--- a/sequences_processing/16S/16S_results/bi_family_16S_B.xlsx
+++ b/sequences_processing/16S/16S_results/bi_family_16S_B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -428,10 +434,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>4.29015910289165</v>
@@ -439,10 +451,16 @@
       <c r="C2" t="n">
         <v>0.976432816850845</v>
       </c>
+      <c r="D2" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>186.161676646707</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>4.32750599982867</v>
@@ -450,10 +468,16 @@
       <c r="C3" t="n">
         <v>0.977627770762985</v>
       </c>
+      <c r="D3" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>198.181395348837</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>4.23119079215364</v>
@@ -461,10 +485,16 @@
       <c r="C4" t="n">
         <v>0.973339373590216</v>
       </c>
+      <c r="D4" t="n">
+        <v>174</v>
+      </c>
+      <c r="E4" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>4.26790956492336</v>
@@ -472,10 +502,16 @@
       <c r="C5" t="n">
         <v>0.975851974687174</v>
       </c>
+      <c r="D5" t="n">
+        <v>184</v>
+      </c>
+      <c r="E5" t="n">
+        <v>182.341176470588</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>4.24417404321509</v>
@@ -483,10 +519,16 @@
       <c r="C6" t="n">
         <v>0.975067059918662</v>
       </c>
+      <c r="D6" t="n">
+        <v>181</v>
+      </c>
+      <c r="E6" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>4.36887950102955</v>
@@ -494,10 +536,16 @@
       <c r="C7" t="n">
         <v>0.976854835815993</v>
       </c>
+      <c r="D7" t="n">
+        <v>196</v>
+      </c>
+      <c r="E7" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>4.27120369928072</v>
@@ -505,10 +553,16 @@
       <c r="C8" t="n">
         <v>0.972370237252659</v>
       </c>
+      <c r="D8" t="n">
+        <v>185</v>
+      </c>
+      <c r="E8" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>4.29344879522468</v>
@@ -516,10 +570,16 @@
       <c r="C9" t="n">
         <v>0.97524985802773</v>
       </c>
+      <c r="D9" t="n">
+        <v>178</v>
+      </c>
+      <c r="E9" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>4.2566040713858</v>
@@ -527,10 +587,16 @@
       <c r="C10" t="n">
         <v>0.975798924456705</v>
       </c>
+      <c r="D10" t="n">
+        <v>177</v>
+      </c>
+      <c r="E10" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>4.16913815542332</v>
@@ -538,10 +604,16 @@
       <c r="C11" t="n">
         <v>0.970526037235664</v>
       </c>
+      <c r="D11" t="n">
+        <v>163</v>
+      </c>
+      <c r="E11" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>4.15999755427267</v>
@@ -549,10 +621,16 @@
       <c r="C12" t="n">
         <v>0.972810179076112</v>
       </c>
+      <c r="D12" t="n">
+        <v>184</v>
+      </c>
+      <c r="E12" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>4.28292601718442</v>
@@ -560,10 +638,16 @@
       <c r="C13" t="n">
         <v>0.976046078640543</v>
       </c>
+      <c r="D13" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" t="n">
+        <v>180.157894736842</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>4.25183288867265</v>
@@ -571,10 +655,16 @@
       <c r="C14" t="n">
         <v>0.973260459443817</v>
       </c>
+      <c r="D14" t="n">
+        <v>178</v>
+      </c>
+      <c r="E14" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>4.32656971711102</v>
@@ -582,10 +672,16 @@
       <c r="C15" t="n">
         <v>0.976688866206781</v>
       </c>
+      <c r="D15" t="n">
+        <v>192</v>
+      </c>
+      <c r="E15" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>4.36705001773524</v>
@@ -593,10 +689,16 @@
       <c r="C16" t="n">
         <v>0.978003296572075</v>
       </c>
+      <c r="D16" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>199.348993288591</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>4.37029563775064</v>
@@ -604,10 +706,16 @@
       <c r="C17" t="n">
         <v>0.978383974292557</v>
       </c>
+      <c r="D17" t="n">
+        <v>195.666666666667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>195.344086021505</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>3.91434448323519</v>
@@ -615,10 +723,16 @@
       <c r="C18" t="n">
         <v>0.959551494168459</v>
       </c>
+      <c r="D18" t="n">
+        <v>135</v>
+      </c>
+      <c r="E18" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>4.20226665430288</v>
@@ -626,10 +740,16 @@
       <c r="C19" t="n">
         <v>0.973832403237823</v>
       </c>
+      <c r="D19" t="n">
+        <v>162.25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>162.230769230769</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>4.19497720005037</v>
@@ -637,10 +757,16 @@
       <c r="C20" t="n">
         <v>0.97166878902938</v>
       </c>
+      <c r="D20" t="n">
+        <v>162</v>
+      </c>
+      <c r="E20" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>4.18626467542014</v>
@@ -648,10 +774,16 @@
       <c r="C21" t="n">
         <v>0.971482902354464</v>
       </c>
+      <c r="D21" t="n">
+        <v>192.25</v>
+      </c>
+      <c r="E21" t="n">
+        <v>192.175</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>4.11750100793144</v>
@@ -659,16 +791,28 @@
       <c r="C22" t="n">
         <v>0.969607805064129</v>
       </c>
+      <c r="D22" t="n">
+        <v>151</v>
+      </c>
+      <c r="E22" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>4.14374094481006</v>
       </c>
       <c r="C23" t="n">
         <v>0.968316590313796</v>
+      </c>
+      <c r="D23" t="n">
+        <v>174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
